--- a/V1/Dataset/GECCO20.xlsx
+++ b/V1/Dataset/GECCO20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pylya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pylya\Desktop\PhD\PhD\github\CSPLib\V1\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72751A7-53A0-4B09-B91A-F556F9C79AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC79A859-B494-4AE2-9865-D2AC4423F085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="22" r:id="rId1"/>
@@ -1737,7 +1737,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="495">
   <si>
     <t>Sessions</t>
   </si>
@@ -3554,6 +3554,96 @@
   </si>
   <si>
     <t>Room 8</t>
+  </si>
+  <si>
+    <t>person8</t>
+  </si>
+  <si>
+    <t>person9</t>
+  </si>
+  <si>
+    <t>person10</t>
+  </si>
+  <si>
+    <t>person11</t>
+  </si>
+  <si>
+    <t>person12</t>
+  </si>
+  <si>
+    <t>person13</t>
+  </si>
+  <si>
+    <t>person23</t>
+  </si>
+  <si>
+    <t>person30</t>
+  </si>
+  <si>
+    <t>person31</t>
+  </si>
+  <si>
+    <t>person38</t>
+  </si>
+  <si>
+    <t>person48</t>
+  </si>
+  <si>
+    <t>person49</t>
+  </si>
+  <si>
+    <t>person52</t>
+  </si>
+  <si>
+    <t>person54</t>
+  </si>
+  <si>
+    <t>person55</t>
+  </si>
+  <si>
+    <t>person64</t>
+  </si>
+  <si>
+    <t>person67</t>
+  </si>
+  <si>
+    <t>person86</t>
+  </si>
+  <si>
+    <t>person87</t>
+  </si>
+  <si>
+    <t>person95</t>
+  </si>
+  <si>
+    <t>person96</t>
+  </si>
+  <si>
+    <t>person98</t>
+  </si>
+  <si>
+    <t>person99</t>
+  </si>
+  <si>
+    <t>person102</t>
+  </si>
+  <si>
+    <t>person103</t>
+  </si>
+  <si>
+    <t>person107</t>
+  </si>
+  <si>
+    <t>person110</t>
+  </si>
+  <si>
+    <t>person111</t>
+  </si>
+  <si>
+    <t>person128</t>
+  </si>
+  <si>
+    <t>person140</t>
   </si>
 </sst>
 </file>
@@ -3862,17 +3952,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3883,6 +3964,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3891,12 +3978,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3910,10 +3991,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3930,9 +4023,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3955,17 +4045,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4260,143 +4350,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
     </row>
     <row r="4" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="50"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="50"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="50"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="50"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="51"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="50"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="50"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="51"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="50"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="51"/>
     </row>
     <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="50"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="51"/>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="37"/>
+      <c r="A15" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="37"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="44"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="32" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="52"/>
@@ -4483,221 +4573,221 @@
       <c r="E29" s="55"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="59"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="33"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="59"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="33"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="59"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="33"/>
     </row>
     <row r="33" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="60" t="s">
+      <c r="A33" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="60"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="61"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="42"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="60"/>
-      <c r="B34" s="60"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="61"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="42"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="60"/>
-      <c r="B35" s="60"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="61"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="42"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="60"/>
-      <c r="B36" s="60"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="61"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="42"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="60"/>
-      <c r="B37" s="60"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="61"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="42"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="60"/>
-      <c r="B38" s="60"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="61"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="42"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="60"/>
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="61"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="42"/>
     </row>
     <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="40"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="41"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="38"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="37"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="36"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="36"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="37"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="36"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="43"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="40"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="32" t="s">
+      <c r="A44" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="34"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="31"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="33"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="34"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="31"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="34"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="31"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="33"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="34"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="31"/>
     </row>
     <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="40"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="41"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="38"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="35" t="s">
+      <c r="A49" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="37"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="36"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="36"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="37"/>
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="36"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="42" t="s">
+      <c r="A51" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="43"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="40"/>
     </row>
     <row r="52" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="30" t="s">
+      <c r="A52" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="31"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="60"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="32" t="s">
+      <c r="A53" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B53" s="32"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="46"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="47"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="32"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="46"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="47"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="30" t="s">
+      <c r="A55" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="31"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="60"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="30" t="s">
+      <c r="A56" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B56" s="30"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="31"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="60"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="27" t="s">
@@ -4706,427 +4796,439 @@
       <c r="E57" s="18"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="32" t="s">
+      <c r="A58" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="34"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="31"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="33"/>
-      <c r="B59" s="33"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="34"/>
+      <c r="A59" s="30"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="31"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="38" t="s">
+      <c r="A60" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B60" s="38"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="39"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="44"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="38"/>
-      <c r="B61" s="38"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="39"/>
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="44"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="38"/>
-      <c r="B62" s="38"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="39"/>
+      <c r="A62" s="43"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="44"/>
     </row>
     <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="40"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="41"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="38"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="35" t="s">
+      <c r="A64" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B64" s="36"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="37"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="36"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="36"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="37"/>
+      <c r="A65" s="35"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="36"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="42" t="s">
+      <c r="A66" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B66" s="42"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="42"/>
-      <c r="E66" s="43"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="40"/>
     </row>
     <row r="67" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="30" t="s">
+      <c r="A67" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B67" s="30"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="31"/>
+      <c r="B67" s="59"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="60"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="28"/>
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="29"/>
+      <c r="A68" s="45"/>
+      <c r="B68" s="45"/>
+      <c r="C68" s="45"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="46"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="35" t="s">
+      <c r="A69" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B69" s="36"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="37"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="36"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="36"/>
-      <c r="B70" s="36"/>
-      <c r="C70" s="36"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="37"/>
+      <c r="A70" s="35"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="36"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="38" t="s">
+      <c r="A71" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="B71" s="38"/>
-      <c r="C71" s="38"/>
-      <c r="D71" s="38"/>
-      <c r="E71" s="39"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="44"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="38"/>
-      <c r="B72" s="38"/>
-      <c r="C72" s="38"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="39"/>
+      <c r="A72" s="43"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="44"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="38"/>
-      <c r="B73" s="38"/>
-      <c r="C73" s="38"/>
-      <c r="D73" s="38"/>
-      <c r="E73" s="39"/>
+      <c r="A73" s="43"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="44"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="38"/>
-      <c r="B74" s="38"/>
-      <c r="C74" s="38"/>
-      <c r="D74" s="38"/>
-      <c r="E74" s="39"/>
+      <c r="A74" s="43"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="44"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="38"/>
-      <c r="B75" s="38"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="38"/>
-      <c r="E75" s="39"/>
+      <c r="A75" s="43"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="44"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="38"/>
-      <c r="B76" s="38"/>
-      <c r="C76" s="38"/>
-      <c r="D76" s="38"/>
-      <c r="E76" s="39"/>
+      <c r="A76" s="43"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="44"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="38"/>
-      <c r="B77" s="38"/>
-      <c r="C77" s="38"/>
-      <c r="D77" s="38"/>
-      <c r="E77" s="39"/>
+      <c r="A77" s="43"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="38"/>
-      <c r="B78" s="38"/>
-      <c r="C78" s="38"/>
-      <c r="D78" s="38"/>
-      <c r="E78" s="39"/>
+      <c r="A78" s="43"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="44"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="44"/>
-      <c r="B79" s="44"/>
-      <c r="C79" s="44"/>
-      <c r="D79" s="44"/>
-      <c r="E79" s="45"/>
+      <c r="A79" s="61"/>
+      <c r="B79" s="61"/>
+      <c r="C79" s="61"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="62"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="35" t="s">
+      <c r="A80" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B80" s="36"/>
-      <c r="C80" s="36"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="37"/>
+      <c r="B80" s="35"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="36"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="36"/>
-      <c r="B81" s="36"/>
-      <c r="C81" s="36"/>
-      <c r="D81" s="36"/>
-      <c r="E81" s="37"/>
+      <c r="A81" s="35"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="36"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="38" t="s">
+      <c r="A82" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B82" s="38"/>
-      <c r="C82" s="38"/>
-      <c r="D82" s="38"/>
-      <c r="E82" s="39"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="44"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="38"/>
-      <c r="B83" s="38"/>
-      <c r="C83" s="38"/>
-      <c r="D83" s="38"/>
-      <c r="E83" s="39"/>
+      <c r="A83" s="43"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="43"/>
+      <c r="D83" s="43"/>
+      <c r="E83" s="44"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="38"/>
-      <c r="B84" s="38"/>
-      <c r="C84" s="38"/>
-      <c r="D84" s="38"/>
-      <c r="E84" s="39"/>
+      <c r="A84" s="43"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="44"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="38"/>
-      <c r="B85" s="38"/>
-      <c r="C85" s="38"/>
-      <c r="D85" s="38"/>
-      <c r="E85" s="39"/>
+      <c r="A85" s="43"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="44"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="38"/>
-      <c r="B86" s="38"/>
-      <c r="C86" s="38"/>
-      <c r="D86" s="38"/>
-      <c r="E86" s="39"/>
+      <c r="A86" s="43"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="44"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="38"/>
-      <c r="B87" s="38"/>
-      <c r="C87" s="38"/>
-      <c r="D87" s="38"/>
-      <c r="E87" s="39"/>
+      <c r="A87" s="43"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="44"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="38"/>
-      <c r="B88" s="38"/>
-      <c r="C88" s="38"/>
-      <c r="D88" s="38"/>
-      <c r="E88" s="39"/>
+      <c r="A88" s="43"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="38"/>
-      <c r="B89" s="38"/>
-      <c r="C89" s="38"/>
-      <c r="D89" s="38"/>
-      <c r="E89" s="39"/>
+      <c r="A89" s="43"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="44"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="28"/>
-      <c r="B90" s="28"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="28"/>
-      <c r="E90" s="29"/>
+      <c r="A90" s="45"/>
+      <c r="B90" s="45"/>
+      <c r="C90" s="45"/>
+      <c r="D90" s="45"/>
+      <c r="E90" s="46"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="35" t="s">
+      <c r="A91" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B91" s="36"/>
-      <c r="C91" s="36"/>
-      <c r="D91" s="36"/>
-      <c r="E91" s="37"/>
+      <c r="B91" s="35"/>
+      <c r="C91" s="35"/>
+      <c r="D91" s="35"/>
+      <c r="E91" s="36"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="36"/>
-      <c r="B92" s="36"/>
-      <c r="C92" s="36"/>
-      <c r="D92" s="36"/>
-      <c r="E92" s="37"/>
+      <c r="A92" s="35"/>
+      <c r="B92" s="35"/>
+      <c r="C92" s="35"/>
+      <c r="D92" s="35"/>
+      <c r="E92" s="36"/>
     </row>
     <row r="93" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="38" t="s">
+      <c r="A93" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B93" s="38"/>
-      <c r="C93" s="38"/>
-      <c r="D93" s="38"/>
-      <c r="E93" s="39"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="44"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="38"/>
-      <c r="B94" s="38"/>
-      <c r="C94" s="38"/>
-      <c r="D94" s="38"/>
-      <c r="E94" s="39"/>
+      <c r="A94" s="43"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="43"/>
+      <c r="E94" s="44"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="38"/>
-      <c r="B95" s="38"/>
-      <c r="C95" s="38"/>
-      <c r="D95" s="38"/>
-      <c r="E95" s="39"/>
+      <c r="A95" s="43"/>
+      <c r="B95" s="43"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="43"/>
+      <c r="E95" s="44"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="38"/>
-      <c r="B96" s="38"/>
-      <c r="C96" s="38"/>
-      <c r="D96" s="38"/>
-      <c r="E96" s="39"/>
+      <c r="A96" s="43"/>
+      <c r="B96" s="43"/>
+      <c r="C96" s="43"/>
+      <c r="D96" s="43"/>
+      <c r="E96" s="44"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="38"/>
-      <c r="B97" s="38"/>
-      <c r="C97" s="38"/>
-      <c r="D97" s="38"/>
-      <c r="E97" s="39"/>
+      <c r="A97" s="43"/>
+      <c r="B97" s="43"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="43"/>
+      <c r="E97" s="44"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="38"/>
-      <c r="B98" s="38"/>
-      <c r="C98" s="38"/>
-      <c r="D98" s="38"/>
-      <c r="E98" s="39"/>
+      <c r="A98" s="43"/>
+      <c r="B98" s="43"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="43"/>
+      <c r="E98" s="44"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="38"/>
-      <c r="B99" s="38"/>
-      <c r="C99" s="38"/>
-      <c r="D99" s="38"/>
-      <c r="E99" s="39"/>
+      <c r="A99" s="43"/>
+      <c r="B99" s="43"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="38"/>
-      <c r="B100" s="38"/>
-      <c r="C100" s="38"/>
-      <c r="D100" s="38"/>
-      <c r="E100" s="39"/>
+      <c r="A100" s="43"/>
+      <c r="B100" s="43"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="43"/>
+      <c r="E100" s="44"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="28"/>
-      <c r="B101" s="28"/>
-      <c r="C101" s="28"/>
-      <c r="D101" s="28"/>
-      <c r="E101" s="29"/>
+      <c r="A101" s="45"/>
+      <c r="B101" s="45"/>
+      <c r="C101" s="45"/>
+      <c r="D101" s="45"/>
+      <c r="E101" s="46"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="35" t="s">
+      <c r="A102" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B102" s="36"/>
-      <c r="C102" s="36"/>
-      <c r="D102" s="36"/>
-      <c r="E102" s="37"/>
+      <c r="B102" s="35"/>
+      <c r="C102" s="35"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="36"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="36"/>
-      <c r="B103" s="36"/>
-      <c r="C103" s="36"/>
-      <c r="D103" s="36"/>
-      <c r="E103" s="37"/>
+      <c r="A103" s="35"/>
+      <c r="B103" s="35"/>
+      <c r="C103" s="35"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="36"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="38" t="s">
+      <c r="A104" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B104" s="38"/>
-      <c r="C104" s="38"/>
-      <c r="D104" s="38"/>
-      <c r="E104" s="39"/>
+      <c r="B104" s="43"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="43"/>
+      <c r="E104" s="44"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="38"/>
-      <c r="B105" s="38"/>
-      <c r="C105" s="38"/>
-      <c r="D105" s="38"/>
-      <c r="E105" s="39"/>
+      <c r="A105" s="43"/>
+      <c r="B105" s="43"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="43"/>
+      <c r="E105" s="44"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="38"/>
-      <c r="B106" s="38"/>
-      <c r="C106" s="38"/>
-      <c r="D106" s="38"/>
-      <c r="E106" s="39"/>
+      <c r="A106" s="43"/>
+      <c r="B106" s="43"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="43"/>
+      <c r="E106" s="44"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="38"/>
-      <c r="B107" s="38"/>
-      <c r="C107" s="38"/>
-      <c r="D107" s="38"/>
-      <c r="E107" s="39"/>
+      <c r="A107" s="43"/>
+      <c r="B107" s="43"/>
+      <c r="C107" s="43"/>
+      <c r="D107" s="43"/>
+      <c r="E107" s="44"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="38"/>
-      <c r="B108" s="38"/>
-      <c r="C108" s="38"/>
-      <c r="D108" s="38"/>
-      <c r="E108" s="39"/>
+      <c r="A108" s="43"/>
+      <c r="B108" s="43"/>
+      <c r="C108" s="43"/>
+      <c r="D108" s="43"/>
+      <c r="E108" s="44"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="38"/>
-      <c r="B109" s="38"/>
-      <c r="C109" s="38"/>
-      <c r="D109" s="38"/>
-      <c r="E109" s="39"/>
+      <c r="A109" s="43"/>
+      <c r="B109" s="43"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="43"/>
+      <c r="E109" s="44"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="38"/>
-      <c r="B110" s="38"/>
-      <c r="C110" s="38"/>
-      <c r="D110" s="38"/>
-      <c r="E110" s="39"/>
+      <c r="A110" s="43"/>
+      <c r="B110" s="43"/>
+      <c r="C110" s="43"/>
+      <c r="D110" s="43"/>
+      <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="38"/>
-      <c r="B111" s="38"/>
-      <c r="C111" s="38"/>
-      <c r="D111" s="38"/>
-      <c r="E111" s="39"/>
+      <c r="A111" s="43"/>
+      <c r="B111" s="43"/>
+      <c r="C111" s="43"/>
+      <c r="D111" s="43"/>
+      <c r="E111" s="44"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="28"/>
-      <c r="B112" s="28"/>
-      <c r="C112" s="28"/>
-      <c r="D112" s="28"/>
-      <c r="E112" s="29"/>
+      <c r="A112" s="45"/>
+      <c r="B112" s="45"/>
+      <c r="C112" s="45"/>
+      <c r="D112" s="45"/>
+      <c r="E112" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A44:E45"/>
-    <mergeCell ref="A46:E47"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A41:E42"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A33:E39"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A58:E59"/>
+    <mergeCell ref="A91:E92"/>
+    <mergeCell ref="A93:E100"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="A69:E70"/>
+    <mergeCell ref="A60:E62"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A64:E65"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A71:E78"/>
+    <mergeCell ref="A102:E103"/>
+    <mergeCell ref="A104:E111"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A49:E50"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A79:E79"/>
     <mergeCell ref="A80:E81"/>
     <mergeCell ref="A82:E89"/>
     <mergeCell ref="A90:E90"/>
@@ -5143,27 +5245,15 @@
     <mergeCell ref="A20:E21"/>
     <mergeCell ref="A55:E55"/>
     <mergeCell ref="A27:E29"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:E50"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A58:E59"/>
-    <mergeCell ref="A91:E92"/>
-    <mergeCell ref="A93:E100"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="A69:E70"/>
-    <mergeCell ref="A60:E62"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A64:E65"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A71:E78"/>
-    <mergeCell ref="A102:E103"/>
-    <mergeCell ref="A104:E111"/>
+    <mergeCell ref="A44:E45"/>
+    <mergeCell ref="A46:E47"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A41:E42"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:E39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6152,9 +6242,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6227,28 +6317,28 @@
       <c r="R1" s="16" t="s">
         <v>456</v>
       </c>
-      <c r="S1" s="62" t="s">
+      <c r="S1" s="28" t="s">
         <v>457</v>
       </c>
-      <c r="T1" s="62" t="s">
+      <c r="T1" s="28" t="s">
         <v>458</v>
       </c>
-      <c r="U1" s="62" t="s">
+      <c r="U1" s="28" t="s">
         <v>459</v>
       </c>
-      <c r="V1" s="62" t="s">
+      <c r="V1" s="28" t="s">
         <v>460</v>
       </c>
-      <c r="W1" s="62" t="s">
+      <c r="W1" s="28" t="s">
         <v>461</v>
       </c>
-      <c r="X1" s="62" t="s">
+      <c r="X1" s="28" t="s">
         <v>462</v>
       </c>
-      <c r="Y1" s="62" t="s">
+      <c r="Y1" s="28" t="s">
         <v>463</v>
       </c>
-      <c r="Z1" s="62" t="s">
+      <c r="Z1" s="28" t="s">
         <v>464</v>
       </c>
     </row>
@@ -12216,10 +12306,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CFC106-4249-4BC9-9967-425037A65B0D}">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J159"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O151" sqref="O151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12262,160 +12352,1320 @@
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>296</v>
+      </c>
       <c r="H2" s="6"/>
+      <c r="I2" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>309</v>
+      </c>
       <c r="H3" s="6"/>
+      <c r="I3" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>319</v>
+      </c>
       <c r="H4" s="6"/>
+      <c r="I4" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>320</v>
+      </c>
       <c r="H5" s="6"/>
+      <c r="I5" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>373</v>
+      </c>
       <c r="H6" s="6"/>
+      <c r="I6" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>417</v>
+      </c>
       <c r="H7" s="6"/>
+      <c r="I7" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>435</v>
+      </c>
       <c r="H8" s="6"/>
+      <c r="I8" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>465</v>
+      </c>
       <c r="H9" s="6"/>
+      <c r="I9" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>466</v>
+      </c>
       <c r="H10" s="6"/>
+      <c r="I10" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>467</v>
+      </c>
       <c r="H11" s="6"/>
+      <c r="I11" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>468</v>
+      </c>
       <c r="H12" s="6"/>
+      <c r="I12" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>469</v>
+      </c>
       <c r="H13" s="6"/>
+      <c r="I13" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>470</v>
+      </c>
       <c r="H14" s="6"/>
+      <c r="I14" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>418</v>
+      </c>
       <c r="H15" s="6"/>
+      <c r="I15" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>311</v>
+      </c>
       <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>312</v>
+      </c>
       <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>365</v>
+      </c>
       <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>366</v>
+      </c>
       <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>436</v>
+      </c>
       <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I20" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>393</v>
+      </c>
       <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>292</v>
+      </c>
       <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I22" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>321</v>
+      </c>
       <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>471</v>
+      </c>
       <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I24" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>419</v>
+      </c>
       <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>378</v>
+      </c>
       <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I26" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>404</v>
+      </c>
       <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>374</v>
+      </c>
       <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>344</v>
+      </c>
       <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I29" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>345</v>
+      </c>
       <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I30" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>472</v>
+      </c>
       <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I31" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>473</v>
+      </c>
       <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I32" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>420</v>
+      </c>
       <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I33" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>313</v>
+      </c>
       <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I34" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>394</v>
+      </c>
       <c r="H35" s="6"/>
-    </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I35" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>405</v>
+      </c>
       <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I36" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>314</v>
+      </c>
       <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I37" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>445</v>
+      </c>
       <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I38" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>474</v>
+      </c>
       <c r="H39" s="6"/>
-    </row>
-    <row r="40" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I39" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>432</v>
+      </c>
       <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I40" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>293</v>
+      </c>
       <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I41" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>297</v>
+      </c>
       <c r="H42" s="6"/>
-    </row>
-    <row r="43" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I42" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>298</v>
+      </c>
       <c r="H43" s="6"/>
-    </row>
-    <row r="44" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I43" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>299</v>
+      </c>
       <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I44" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>323</v>
+      </c>
       <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I45" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>347</v>
+      </c>
       <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I46" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>348</v>
+      </c>
       <c r="H47" s="6"/>
-    </row>
-    <row r="48" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I47" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>359</v>
+      </c>
       <c r="H48" s="6"/>
-    </row>
-    <row r="49" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I48" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>475</v>
+      </c>
       <c r="H49" s="6"/>
-    </row>
-    <row r="50" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I49" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>476</v>
+      </c>
       <c r="H50" s="6"/>
-    </row>
-    <row r="51" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I50" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>421</v>
+      </c>
       <c r="H51" s="6"/>
-    </row>
-    <row r="52" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I51" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>447</v>
+      </c>
       <c r="H52" s="6"/>
-    </row>
-    <row r="53" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I52" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>477</v>
+      </c>
       <c r="H53" s="6"/>
+      <c r="I53" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="I54" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="I55" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="I56" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="I57" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="I58" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="I59" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="I60" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="I61" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="I62" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="I63" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="I64" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="I65" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="I66" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="I67" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="I68" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="I69" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="I70" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="I71" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="I72" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="I73" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="I74" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="I75" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="I76" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="I77" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="I78" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="I79" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="I80" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="I81" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="I82" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="I83" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="I84" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="I85" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="I86" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="I87" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="I88" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="I89" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="I90" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="I91" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="I92" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="I93" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="I94" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="I95" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="I96" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="I97" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="I98" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="I99" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="I100" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="I101" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="I102" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="I103" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="I104" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="I105" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="I106" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="I107" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="I108" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="I109" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="I110" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="I111" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="I112" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="I113" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="I114" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="I115" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="I116" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="I117" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="I118" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="I119" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="I120" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="I121" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="I122" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="I123" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="I124" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="I125" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="I126" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="I127" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="I128" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="I129" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="I130" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="I131" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="I132" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="I133" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="I134" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="I135" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="I136" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="I137" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="I138" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="I139" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I140" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="I141" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="I142" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="I143" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="I144" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="I145" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="I146" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="I147" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="I148" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="I149" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="I150" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A151" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="I151" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="I152" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="I153" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="I154" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I155" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A156" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="I156" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A157" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="I157" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="I158" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A159" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="I159" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/V1/Dataset/GECCO20.xlsx
+++ b/V1/Dataset/GECCO20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pylya\Desktop\PhD\PhD\github\CSPLib\V1\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC79A859-B494-4AE2-9865-D2AC4423F085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06ADF38F-3F94-43DE-BFE2-D89A0F62C985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="22" r:id="rId1"/>
@@ -1737,7 +1737,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="493">
   <si>
     <t>Sessions</t>
   </si>
@@ -2474,12 +2474,6 @@
   </si>
   <si>
     <t>Preferred Number of Timeslots:</t>
-  </si>
-  <si>
-    <t>Min Number of Timeslots:</t>
-  </si>
-  <si>
-    <t>Max Number of Timeslots:</t>
   </si>
   <si>
     <t>Submission</t>
@@ -3955,6 +3949,18 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3964,12 +3970,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3978,6 +3978,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3991,22 +3997,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4023,6 +4017,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4045,17 +4042,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4424,7 +4418,7 @@
       <c r="E10" s="51"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="59" t="s">
         <v>60</v>
       </c>
       <c r="B11" s="50"/>
@@ -4447,347 +4441,347 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
+      <c r="A15" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="36"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="53"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="54"/>
     </row>
     <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="55"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="55"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="56"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="55"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="56"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="55"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="56"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="57"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="58"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="56"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="57"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="58"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="56"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="57"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="58"/>
     </row>
     <row r="27" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="55"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="56"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="55"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="56"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="55"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="56"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="33"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="60"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="33"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="60"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="33"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="60"/>
     </row>
     <row r="33" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="62"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="41"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="62"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="41"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="42"/>
+      <c r="A35" s="61"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="62"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="41"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="42"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="62"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="41"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="42"/>
+      <c r="A37" s="61"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="62"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="41"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="42"/>
+      <c r="A38" s="61"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="62"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="41"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="42"/>
+      <c r="A39" s="61"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="62"/>
     </row>
     <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="37"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="38"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="42"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="36"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="38"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="35"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="36"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="38"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="40"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="44"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="31"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="35"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="31"/>
+      <c r="A45" s="34"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="35"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="31"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="35"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="30"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="31"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="35"/>
     </row>
     <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="37"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="38"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="42"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="36"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="38"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="35"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="36"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="40"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="44"/>
     </row>
     <row r="52" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="59" t="s">
+      <c r="A52" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="60"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="32"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
       <c r="E53" s="47"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="29"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
       <c r="E54" s="47"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="59" t="s">
+      <c r="A55" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="60"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="32"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="59" t="s">
+      <c r="A56" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="60"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="32"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="27" t="s">
@@ -4796,418 +4790,448 @@
       <c r="E57" s="18"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="29" t="s">
+      <c r="A58" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B58" s="30"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="31"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="35"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="30"/>
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="31"/>
+      <c r="A59" s="34"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="35"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="43" t="s">
+      <c r="A60" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B60" s="43"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="44"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="40"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="43"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="44"/>
+      <c r="A61" s="39"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="40"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="43"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="44"/>
+      <c r="A62" s="39"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="40"/>
     </row>
     <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="37"/>
-      <c r="B63" s="37"/>
-      <c r="C63" s="37"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="38"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="42"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="34" t="s">
+      <c r="A64" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="36"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="38"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="35"/>
-      <c r="B65" s="35"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="36"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="38"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="39" t="s">
+      <c r="A66" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="B66" s="39"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="40"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="59" t="s">
+      <c r="A67" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
-      <c r="E67" s="60"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="32"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="45"/>
-      <c r="B68" s="45"/>
-      <c r="C68" s="45"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="46"/>
+      <c r="A68" s="29"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="30"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="34" t="s">
+      <c r="A69" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B69" s="35"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="36"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="38"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="35"/>
-      <c r="B70" s="35"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="36"/>
+      <c r="A70" s="37"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="43" t="s">
+      <c r="A71" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B71" s="43"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="44"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="40"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="43"/>
-      <c r="B72" s="43"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="44"/>
+      <c r="A72" s="39"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="40"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="43"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="44"/>
+      <c r="A73" s="39"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="40"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="43"/>
-      <c r="B74" s="43"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="44"/>
+      <c r="A74" s="39"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="40"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="43"/>
-      <c r="B75" s="43"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="44"/>
+      <c r="A75" s="39"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="40"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="43"/>
-      <c r="B76" s="43"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="43"/>
-      <c r="E76" s="44"/>
+      <c r="A76" s="39"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="40"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="43"/>
-      <c r="B77" s="43"/>
-      <c r="C77" s="43"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="44"/>
+      <c r="A77" s="39"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="39"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="40"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="43"/>
-      <c r="B78" s="43"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="43"/>
-      <c r="E78" s="44"/>
+      <c r="A78" s="39"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="40"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="61"/>
-      <c r="B79" s="61"/>
-      <c r="C79" s="61"/>
-      <c r="D79" s="61"/>
-      <c r="E79" s="62"/>
+      <c r="A79" s="45"/>
+      <c r="B79" s="45"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="46"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="34" t="s">
+      <c r="A80" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B80" s="35"/>
-      <c r="C80" s="35"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="36"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="38"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="35"/>
-      <c r="B81" s="35"/>
-      <c r="C81" s="35"/>
-      <c r="D81" s="35"/>
-      <c r="E81" s="36"/>
+      <c r="A81" s="37"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="37"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="38"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="43" t="s">
+      <c r="A82" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B82" s="43"/>
-      <c r="C82" s="43"/>
-      <c r="D82" s="43"/>
-      <c r="E82" s="44"/>
+      <c r="B82" s="39"/>
+      <c r="C82" s="39"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="40"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="43"/>
-      <c r="B83" s="43"/>
-      <c r="C83" s="43"/>
-      <c r="D83" s="43"/>
-      <c r="E83" s="44"/>
+      <c r="A83" s="39"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="39"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="40"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="43"/>
-      <c r="B84" s="43"/>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="44"/>
+      <c r="A84" s="39"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="40"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="43"/>
-      <c r="B85" s="43"/>
-      <c r="C85" s="43"/>
-      <c r="D85" s="43"/>
-      <c r="E85" s="44"/>
+      <c r="A85" s="39"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="39"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="40"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="43"/>
-      <c r="B86" s="43"/>
-      <c r="C86" s="43"/>
-      <c r="D86" s="43"/>
-      <c r="E86" s="44"/>
+      <c r="A86" s="39"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="39"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="40"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="43"/>
-      <c r="B87" s="43"/>
-      <c r="C87" s="43"/>
-      <c r="D87" s="43"/>
-      <c r="E87" s="44"/>
+      <c r="A87" s="39"/>
+      <c r="B87" s="39"/>
+      <c r="C87" s="39"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="40"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="43"/>
-      <c r="B88" s="43"/>
-      <c r="C88" s="43"/>
-      <c r="D88" s="43"/>
-      <c r="E88" s="44"/>
+      <c r="A88" s="39"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="39"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="40"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="43"/>
-      <c r="B89" s="43"/>
-      <c r="C89" s="43"/>
-      <c r="D89" s="43"/>
-      <c r="E89" s="44"/>
+      <c r="A89" s="39"/>
+      <c r="B89" s="39"/>
+      <c r="C89" s="39"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="40"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="45"/>
-      <c r="B90" s="45"/>
-      <c r="C90" s="45"/>
-      <c r="D90" s="45"/>
-      <c r="E90" s="46"/>
+      <c r="A90" s="29"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="30"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="34" t="s">
+      <c r="A91" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B91" s="35"/>
-      <c r="C91" s="35"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="36"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="38"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="35"/>
-      <c r="B92" s="35"/>
-      <c r="C92" s="35"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="36"/>
+      <c r="A92" s="37"/>
+      <c r="B92" s="37"/>
+      <c r="C92" s="37"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="38"/>
     </row>
     <row r="93" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="43" t="s">
+      <c r="A93" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B93" s="43"/>
-      <c r="C93" s="43"/>
-      <c r="D93" s="43"/>
-      <c r="E93" s="44"/>
+      <c r="B93" s="39"/>
+      <c r="C93" s="39"/>
+      <c r="D93" s="39"/>
+      <c r="E93" s="40"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="43"/>
-      <c r="B94" s="43"/>
-      <c r="C94" s="43"/>
-      <c r="D94" s="43"/>
-      <c r="E94" s="44"/>
+      <c r="A94" s="39"/>
+      <c r="B94" s="39"/>
+      <c r="C94" s="39"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="40"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="43"/>
-      <c r="B95" s="43"/>
-      <c r="C95" s="43"/>
-      <c r="D95" s="43"/>
-      <c r="E95" s="44"/>
+      <c r="A95" s="39"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="39"/>
+      <c r="D95" s="39"/>
+      <c r="E95" s="40"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="43"/>
-      <c r="B96" s="43"/>
-      <c r="C96" s="43"/>
-      <c r="D96" s="43"/>
-      <c r="E96" s="44"/>
+      <c r="A96" s="39"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="39"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="40"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="43"/>
-      <c r="B97" s="43"/>
-      <c r="C97" s="43"/>
-      <c r="D97" s="43"/>
-      <c r="E97" s="44"/>
+      <c r="A97" s="39"/>
+      <c r="B97" s="39"/>
+      <c r="C97" s="39"/>
+      <c r="D97" s="39"/>
+      <c r="E97" s="40"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="43"/>
-      <c r="B98" s="43"/>
-      <c r="C98" s="43"/>
-      <c r="D98" s="43"/>
-      <c r="E98" s="44"/>
+      <c r="A98" s="39"/>
+      <c r="B98" s="39"/>
+      <c r="C98" s="39"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="40"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="43"/>
-      <c r="B99" s="43"/>
-      <c r="C99" s="43"/>
-      <c r="D99" s="43"/>
-      <c r="E99" s="44"/>
+      <c r="A99" s="39"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="39"/>
+      <c r="D99" s="39"/>
+      <c r="E99" s="40"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="43"/>
-      <c r="B100" s="43"/>
-      <c r="C100" s="43"/>
-      <c r="D100" s="43"/>
-      <c r="E100" s="44"/>
+      <c r="A100" s="39"/>
+      <c r="B100" s="39"/>
+      <c r="C100" s="39"/>
+      <c r="D100" s="39"/>
+      <c r="E100" s="40"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="45"/>
-      <c r="B101" s="45"/>
-      <c r="C101" s="45"/>
-      <c r="D101" s="45"/>
-      <c r="E101" s="46"/>
+      <c r="A101" s="29"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="30"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="34" t="s">
+      <c r="A102" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B102" s="35"/>
-      <c r="C102" s="35"/>
-      <c r="D102" s="35"/>
-      <c r="E102" s="36"/>
+      <c r="B102" s="37"/>
+      <c r="C102" s="37"/>
+      <c r="D102" s="37"/>
+      <c r="E102" s="38"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="35"/>
-      <c r="B103" s="35"/>
-      <c r="C103" s="35"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="36"/>
+      <c r="A103" s="37"/>
+      <c r="B103" s="37"/>
+      <c r="C103" s="37"/>
+      <c r="D103" s="37"/>
+      <c r="E103" s="38"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="43" t="s">
+      <c r="A104" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B104" s="43"/>
-      <c r="C104" s="43"/>
-      <c r="D104" s="43"/>
-      <c r="E104" s="44"/>
+      <c r="B104" s="39"/>
+      <c r="C104" s="39"/>
+      <c r="D104" s="39"/>
+      <c r="E104" s="40"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="43"/>
-      <c r="B105" s="43"/>
-      <c r="C105" s="43"/>
-      <c r="D105" s="43"/>
-      <c r="E105" s="44"/>
+      <c r="A105" s="39"/>
+      <c r="B105" s="39"/>
+      <c r="C105" s="39"/>
+      <c r="D105" s="39"/>
+      <c r="E105" s="40"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="43"/>
-      <c r="B106" s="43"/>
-      <c r="C106" s="43"/>
-      <c r="D106" s="43"/>
-      <c r="E106" s="44"/>
+      <c r="A106" s="39"/>
+      <c r="B106" s="39"/>
+      <c r="C106" s="39"/>
+      <c r="D106" s="39"/>
+      <c r="E106" s="40"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="43"/>
-      <c r="B107" s="43"/>
-      <c r="C107" s="43"/>
-      <c r="D107" s="43"/>
-      <c r="E107" s="44"/>
+      <c r="A107" s="39"/>
+      <c r="B107" s="39"/>
+      <c r="C107" s="39"/>
+      <c r="D107" s="39"/>
+      <c r="E107" s="40"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="43"/>
-      <c r="B108" s="43"/>
-      <c r="C108" s="43"/>
-      <c r="D108" s="43"/>
-      <c r="E108" s="44"/>
+      <c r="A108" s="39"/>
+      <c r="B108" s="39"/>
+      <c r="C108" s="39"/>
+      <c r="D108" s="39"/>
+      <c r="E108" s="40"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="43"/>
-      <c r="B109" s="43"/>
-      <c r="C109" s="43"/>
-      <c r="D109" s="43"/>
-      <c r="E109" s="44"/>
+      <c r="A109" s="39"/>
+      <c r="B109" s="39"/>
+      <c r="C109" s="39"/>
+      <c r="D109" s="39"/>
+      <c r="E109" s="40"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="43"/>
-      <c r="B110" s="43"/>
-      <c r="C110" s="43"/>
-      <c r="D110" s="43"/>
-      <c r="E110" s="44"/>
+      <c r="A110" s="39"/>
+      <c r="B110" s="39"/>
+      <c r="C110" s="39"/>
+      <c r="D110" s="39"/>
+      <c r="E110" s="40"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="43"/>
-      <c r="B111" s="43"/>
-      <c r="C111" s="43"/>
-      <c r="D111" s="43"/>
-      <c r="E111" s="44"/>
+      <c r="A111" s="39"/>
+      <c r="B111" s="39"/>
+      <c r="C111" s="39"/>
+      <c r="D111" s="39"/>
+      <c r="E111" s="40"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="45"/>
-      <c r="B112" s="45"/>
-      <c r="C112" s="45"/>
-      <c r="D112" s="45"/>
-      <c r="E112" s="46"/>
+      <c r="A112" s="29"/>
+      <c r="B112" s="29"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="29"/>
+      <c r="E112" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A44:E45"/>
+    <mergeCell ref="A46:E47"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A41:E42"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:E39"/>
+    <mergeCell ref="A80:E81"/>
+    <mergeCell ref="A82:E89"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A53:E54"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="A4:E10"/>
+    <mergeCell ref="A15:E16"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A17:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A22:E23"/>
+    <mergeCell ref="A24:E26"/>
+    <mergeCell ref="A11:E13"/>
+    <mergeCell ref="A20:E21"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A27:E29"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A49:E50"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A79:E79"/>
     <mergeCell ref="A112:E112"/>
     <mergeCell ref="A56:E56"/>
     <mergeCell ref="A58:E59"/>
@@ -5224,36 +5248,6 @@
     <mergeCell ref="A71:E78"/>
     <mergeCell ref="A102:E103"/>
     <mergeCell ref="A104:E111"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:E50"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A80:E81"/>
-    <mergeCell ref="A82:E89"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A53:E54"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="A4:E10"/>
-    <mergeCell ref="A15:E16"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A17:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A22:E23"/>
-    <mergeCell ref="A24:E26"/>
-    <mergeCell ref="A11:E13"/>
-    <mergeCell ref="A20:E21"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A27:E29"/>
-    <mergeCell ref="A44:E45"/>
-    <mergeCell ref="A46:E47"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A41:E42"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A33:E39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5281,81 +5275,81 @@
     <row r="1" spans="1:25" s="3" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
       <c r="B1" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="W1" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="X1" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Y1" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2" s="8"/>
       <c r="Q2" s="1">
@@ -5364,7 +5358,7 @@
     </row>
     <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -5374,7 +5368,7 @@
     </row>
     <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -5382,7 +5376,7 @@
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -5394,7 +5388,7 @@
     </row>
     <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -5407,7 +5401,7 @@
     </row>
     <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -5421,7 +5415,7 @@
     </row>
     <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -5436,7 +5430,7 @@
     </row>
     <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -5452,7 +5446,7 @@
     </row>
     <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -5469,7 +5463,7 @@
     </row>
     <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -5487,7 +5481,7 @@
     </row>
     <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -5506,7 +5500,7 @@
     </row>
     <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -5526,7 +5520,7 @@
     </row>
     <row r="14" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -5547,7 +5541,7 @@
     </row>
     <row r="15" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -5566,7 +5560,7 @@
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -5586,7 +5580,7 @@
     </row>
     <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -5607,7 +5601,7 @@
     </row>
     <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -5635,7 +5629,7 @@
     </row>
     <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -5661,7 +5655,7 @@
     </row>
     <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -5685,7 +5679,7 @@
     </row>
     <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -5710,7 +5704,7 @@
     </row>
     <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -5736,7 +5730,7 @@
     </row>
     <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -5763,7 +5757,7 @@
     </row>
     <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -5791,7 +5785,7 @@
     </row>
     <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -5844,28 +5838,28 @@
     <row r="1" spans="1:16" s="3" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>464</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -5877,7 +5871,7 @@
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="I2" s="1">
         <v>10000</v>
@@ -5885,7 +5879,7 @@
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I3" s="1">
         <v>10000</v>
@@ -5893,7 +5887,7 @@
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I4" s="1">
         <v>10000</v>
@@ -5901,7 +5895,7 @@
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="I5" s="1">
         <v>10000</v>
@@ -5909,7 +5903,7 @@
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I6" s="1">
         <v>10000</v>
@@ -5917,12 +5911,12 @@
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I8" s="1">
         <v>10000</v>
@@ -5935,10 +5929,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B4773B-09CB-4AE1-B7A2-EA1A4F4D3191}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5973,7 +5967,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>48</v>
@@ -6056,7 +6050,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D10" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E10" s="25">
         <v>9</v>
@@ -6212,22 +6206,6 @@
       </c>
       <c r="E29" s="25">
         <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D30" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" s="25">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D31" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="E31" s="25">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -6264,7 +6242,7 @@
   <sheetData>
     <row r="1" spans="1:26" s="7" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -6297,57 +6275,57 @@
         <v>5</v>
       </c>
       <c r="L1" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="N1" s="16" t="s">
         <v>450</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>451</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>452</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>453</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="R1" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="S1" s="28" t="s">
         <v>455</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="T1" s="28" t="s">
         <v>456</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="U1" s="28" t="s">
         <v>457</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="V1" s="28" t="s">
         <v>458</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="W1" s="28" t="s">
         <v>459</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="X1" s="28" t="s">
         <v>460</v>
       </c>
-      <c r="W1" s="28" t="s">
+      <c r="Y1" s="28" t="s">
         <v>461</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="Z1" s="28" t="s">
         <v>462</v>
-      </c>
-      <c r="Y1" s="28" t="s">
-        <v>463</v>
-      </c>
-      <c r="Z1" s="28" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -6367,7 +6345,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K2" s="9"/>
       <c r="S2" s="1"/>
@@ -6381,10 +6359,10 @@
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -6404,17 +6382,17 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K3" s="9"/>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -6434,17 +6412,17 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K4" s="9"/>
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -6464,16 +6442,16 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -6493,7 +6471,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="1">
@@ -6525,10 +6503,10 @@
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -6548,17 +6526,17 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K7" s="9"/>
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -6578,17 +6556,17 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K8" s="9"/>
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -6608,17 +6586,17 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K9" s="9"/>
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -6638,17 +6616,17 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K10" s="9"/>
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -6668,17 +6646,17 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K11" s="9"/>
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -6698,17 +6676,17 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K12" s="9"/>
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -6728,16 +6706,16 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K13" s="9"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -6757,17 +6735,17 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K14" s="9"/>
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -6787,16 +6765,16 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K15" s="9"/>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -6816,16 +6794,16 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K16" s="9"/>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -6845,16 +6823,16 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K17" s="9"/>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -6874,16 +6852,16 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K18" s="9"/>
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -6903,7 +6881,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L19" s="1">
         <v>10</v>
@@ -6934,10 +6912,10 @@
     </row>
     <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -6957,7 +6935,7 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L20" s="1">
         <v>10</v>
@@ -6988,10 +6966,10 @@
     </row>
     <row r="21" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -7011,7 +6989,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
@@ -7024,10 +7002,10 @@
     </row>
     <row r="22" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -7047,7 +7025,7 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
@@ -7060,10 +7038,10 @@
     </row>
     <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -7083,7 +7061,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -7096,10 +7074,10 @@
     </row>
     <row r="24" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -7119,7 +7097,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K24" s="9"/>
       <c r="S24" s="1"/>
@@ -7133,10 +7111,10 @@
     </row>
     <row r="25" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -7156,17 +7134,17 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K25" s="9"/>
       <c r="T25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -7186,17 +7164,17 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K26" s="9"/>
       <c r="T26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -7216,17 +7194,17 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K27" s="9"/>
       <c r="T27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
@@ -7246,15 +7224,15 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -7274,7 +7252,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L29" s="1">
         <v>10</v>
@@ -7305,10 +7283,10 @@
     </row>
     <row r="30" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -7328,7 +7306,7 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L30" s="1">
         <v>10</v>
@@ -7359,10 +7337,10 @@
     </row>
     <row r="31" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -7381,7 +7359,7 @@
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
@@ -7394,10 +7372,10 @@
     </row>
     <row r="32" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -7417,7 +7395,7 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
@@ -7430,10 +7408,10 @@
     </row>
     <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
@@ -7453,17 +7431,17 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K33" s="9"/>
       <c r="T33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -7483,17 +7461,17 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K34" s="9"/>
       <c r="T34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -7513,7 +7491,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K35" s="9"/>
       <c r="L35" s="1">
@@ -7538,10 +7516,10 @@
     </row>
     <row r="36" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -7561,7 +7539,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L36" s="1">
         <v>10</v>
@@ -7579,10 +7557,10 @@
     </row>
     <row r="37" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
@@ -7602,7 +7580,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K37" s="9"/>
       <c r="L37" s="1">
@@ -7621,10 +7599,10 @@
     </row>
     <row r="38" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
@@ -7644,7 +7622,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K38" s="9"/>
       <c r="L38" s="1">
@@ -7663,10 +7641,10 @@
     </row>
     <row r="39" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
@@ -7684,7 +7662,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L39" s="1">
         <v>10</v>
@@ -7702,10 +7680,10 @@
     </row>
     <row r="40" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
@@ -7723,7 +7701,7 @@
         <v>1</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L40" s="1">
         <v>10</v>
@@ -7741,10 +7719,10 @@
     </row>
     <row r="41" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
@@ -7762,7 +7740,7 @@
         <v>1</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L41" s="1">
         <v>10</v>
@@ -7780,10 +7758,10 @@
     </row>
     <row r="42" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
@@ -7801,7 +7779,7 @@
         <v>1</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L42" s="1">
         <v>10</v>
@@ -7819,10 +7797,10 @@
     </row>
     <row r="43" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
@@ -7840,16 +7818,16 @@
         <v>1</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="T43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
@@ -7867,16 +7845,16 @@
         <v>1</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="T44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
@@ -7894,16 +7872,16 @@
         <v>1</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="T45" s="1"/>
     </row>
     <row r="46" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
@@ -7921,15 +7899,15 @@
         <v>1</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
@@ -7947,15 +7925,15 @@
         <v>1</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
@@ -7973,7 +7951,7 @@
         <v>1</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="S48" s="12"/>
       <c r="T48" s="12"/>
@@ -7986,10 +7964,10 @@
     </row>
     <row r="49" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
@@ -8007,7 +7985,7 @@
         <v>1</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="L49" s="1">
         <v>10</v>
@@ -8031,10 +8009,10 @@
     </row>
     <row r="50" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
@@ -8052,16 +8030,16 @@
         <v>1</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="T50" s="1"/>
     </row>
     <row r="51" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
@@ -8079,7 +8057,7 @@
         <v>1</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="S51" s="12"/>
       <c r="T51" s="12"/>
@@ -8092,10 +8070,10 @@
     </row>
     <row r="52" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
@@ -8113,7 +8091,7 @@
         <v>1</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="S52" s="12"/>
       <c r="T52" s="12"/>
@@ -8126,10 +8104,10 @@
     </row>
     <row r="53" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
@@ -8147,7 +8125,7 @@
         <v>1</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L53" s="1">
         <v>10</v>
@@ -8178,10 +8156,10 @@
     </row>
     <row r="54" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C54" s="1">
         <v>1</v>
@@ -8199,7 +8177,7 @@
         <v>1</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L54" s="1">
         <v>1</v>
@@ -8230,10 +8208,10 @@
     </row>
     <row r="55" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C55" s="1">
         <v>1</v>
@@ -8251,7 +8229,7 @@
         <v>1</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="L55" s="1">
         <v>1</v>
@@ -8282,10 +8260,10 @@
     </row>
     <row r="56" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
@@ -8303,7 +8281,7 @@
         <v>1</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="L56" s="1">
         <v>1</v>
@@ -8334,10 +8312,10 @@
     </row>
     <row r="57" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
@@ -8355,16 +8333,16 @@
         <v>1</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="T57" s="1"/>
     </row>
     <row r="58" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
@@ -8382,16 +8360,16 @@
         <v>1</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="T58" s="1"/>
     </row>
     <row r="59" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
@@ -8409,7 +8387,7 @@
         <v>1</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="M59" s="1">
         <v>1</v>
@@ -8430,10 +8408,10 @@
     </row>
     <row r="60" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C60" s="1">
         <v>1</v>
@@ -8451,7 +8429,7 @@
         <v>1</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="L60" s="1">
         <v>10</v>
@@ -8475,10 +8453,10 @@
     </row>
     <row r="61" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C61" s="1">
         <v>1</v>
@@ -8496,16 +8474,16 @@
         <v>1</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="T61" s="1"/>
     </row>
     <row r="62" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
@@ -8523,16 +8501,16 @@
         <v>1</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="T62" s="1"/>
     </row>
     <row r="63" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C63" s="1">
         <v>1</v>
@@ -8550,16 +8528,16 @@
         <v>1</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="T63" s="1"/>
     </row>
     <row r="64" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C64" s="1">
         <v>1</v>
@@ -8577,15 +8555,15 @@
         <v>1</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="65" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C65" s="1">
         <v>1</v>
@@ -8603,7 +8581,7 @@
         <v>1</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="L65" s="1">
         <v>1</v>
@@ -8634,10 +8612,10 @@
     </row>
     <row r="66" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
@@ -8655,16 +8633,16 @@
         <v>1</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="T66" s="1"/>
     </row>
     <row r="67" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C67" s="1">
         <v>1</v>
@@ -8682,16 +8660,16 @@
         <v>1</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="T67" s="1"/>
     </row>
     <row r="68" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C68" s="1">
         <v>1</v>
@@ -8709,16 +8687,16 @@
         <v>1</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="T68" s="1"/>
     </row>
     <row r="69" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C69" s="1">
         <v>1</v>
@@ -8736,16 +8714,16 @@
         <v>1</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="T69" s="1"/>
     </row>
     <row r="70" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C70" s="1">
         <v>1</v>
@@ -8763,7 +8741,7 @@
         <v>1</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="L70" s="1">
         <v>10</v>
@@ -8787,10 +8765,10 @@
     </row>
     <row r="71" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
@@ -8808,7 +8786,7 @@
         <v>1</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L71" s="1">
         <v>10</v>
@@ -8832,10 +8810,10 @@
     </row>
     <row r="72" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C72" s="1">
         <v>1</v>
@@ -8853,16 +8831,16 @@
         <v>1</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="T72" s="1"/>
     </row>
     <row r="73" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C73" s="1">
         <v>1</v>
@@ -8880,16 +8858,16 @@
         <v>1</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="T73" s="1"/>
     </row>
     <row r="74" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C74" s="1">
         <v>1</v>
@@ -8907,16 +8885,16 @@
         <v>1</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="T74" s="1"/>
     </row>
     <row r="75" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C75" s="1">
         <v>1</v>
@@ -8934,7 +8912,7 @@
         <v>1</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
@@ -8947,10 +8925,10 @@
     </row>
     <row r="76" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C76" s="1">
         <v>1</v>
@@ -8968,7 +8946,7 @@
         <v>1</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
@@ -8981,10 +8959,10 @@
     </row>
     <row r="77" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C77" s="1">
         <v>1</v>
@@ -9002,16 +8980,16 @@
         <v>1</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="T77" s="1"/>
     </row>
     <row r="78" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C78" s="1">
         <v>1</v>
@@ -9029,16 +9007,16 @@
         <v>1</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="T78" s="1"/>
     </row>
     <row r="79" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C79" s="1">
         <v>1</v>
@@ -9056,16 +9034,16 @@
         <v>1</v>
       </c>
       <c r="J79" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="T79" s="1"/>
     </row>
     <row r="80" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C80" s="1">
         <v>1</v>
@@ -9083,16 +9061,16 @@
         <v>1</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="T80" s="1"/>
     </row>
     <row r="81" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C81" s="1">
         <v>1</v>
@@ -9110,16 +9088,16 @@
         <v>1</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="T81" s="1"/>
     </row>
     <row r="82" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C82" s="1">
         <v>1</v>
@@ -9137,7 +9115,7 @@
         <v>1</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="S82" s="12"/>
       <c r="T82" s="12"/>
@@ -9150,10 +9128,10 @@
     </row>
     <row r="83" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C83" s="1">
         <v>1</v>
@@ -9171,7 +9149,7 @@
         <v>1</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="L83" s="1">
         <v>10</v>
@@ -9202,10 +9180,10 @@
     </row>
     <row r="84" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C84" s="1">
         <v>1</v>
@@ -9223,7 +9201,7 @@
         <v>1</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
@@ -9236,10 +9214,10 @@
     </row>
     <row r="85" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C85" s="1">
         <v>1</v>
@@ -9257,7 +9235,7 @@
         <v>1</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L85" s="1">
         <v>10</v>
@@ -9281,10 +9259,10 @@
     </row>
     <row r="86" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C86" s="1">
         <v>1</v>
@@ -9302,7 +9280,7 @@
         <v>1</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="S86" s="12"/>
       <c r="T86" s="12"/>
@@ -9315,10 +9293,10 @@
     </row>
     <row r="87" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C87" s="1">
         <v>1</v>
@@ -9336,7 +9314,7 @@
         <v>1</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
@@ -9349,10 +9327,10 @@
     </row>
     <row r="88" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C88" s="1">
         <v>1</v>
@@ -9370,7 +9348,7 @@
         <v>1</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
@@ -9383,10 +9361,10 @@
     </row>
     <row r="89" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C89" s="1">
         <v>1</v>
@@ -9404,16 +9382,16 @@
         <v>1</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="T89" s="1"/>
     </row>
     <row r="90" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C90" s="1">
         <v>1</v>
@@ -9431,7 +9409,7 @@
         <v>1</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L90" s="1">
         <v>1</v>
@@ -9455,10 +9433,10 @@
     </row>
     <row r="91" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C91" s="1">
         <v>1</v>
@@ -9476,16 +9454,16 @@
         <v>1</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="T91" s="1"/>
     </row>
     <row r="92" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C92" s="1">
         <v>1</v>
@@ -9503,16 +9481,16 @@
         <v>1</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="T92" s="1"/>
     </row>
     <row r="93" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C93" s="1">
         <v>1</v>
@@ -9530,16 +9508,16 @@
         <v>1</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="T93" s="1"/>
     </row>
     <row r="94" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C94" s="1">
         <v>1</v>
@@ -9557,16 +9535,16 @@
         <v>1</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="T94" s="1"/>
     </row>
     <row r="95" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C95" s="1">
         <v>1</v>
@@ -9584,16 +9562,16 @@
         <v>1</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="T95" s="1"/>
     </row>
     <row r="96" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C96" s="1">
         <v>1</v>
@@ -9611,16 +9589,16 @@
         <v>1</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="T96" s="1"/>
     </row>
     <row r="97" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C97" s="1">
         <v>1</v>
@@ -9638,7 +9616,7 @@
         <v>1</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="L97" s="1">
         <v>10</v>
@@ -9662,10 +9640,10 @@
     </row>
     <row r="98" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C98" s="1">
         <v>1</v>
@@ -9683,16 +9661,16 @@
         <v>1</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="T98" s="1"/>
     </row>
     <row r="99" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C99" s="1">
         <v>1</v>
@@ -9710,16 +9688,16 @@
         <v>1</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="T99" s="1"/>
     </row>
     <row r="100" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C100" s="1">
         <v>1</v>
@@ -9737,16 +9715,16 @@
         <v>1</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T100" s="1"/>
     </row>
     <row r="101" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C101" s="1">
         <v>1</v>
@@ -9764,16 +9742,16 @@
         <v>1</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="T101" s="1"/>
     </row>
     <row r="102" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C102" s="1">
         <v>1</v>
@@ -9791,15 +9769,15 @@
         <v>1</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="103" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C103" s="1">
         <v>1</v>
@@ -9817,7 +9795,7 @@
         <v>1</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
@@ -9830,10 +9808,10 @@
     </row>
     <row r="104" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C104" s="1">
         <v>1</v>
@@ -9851,7 +9829,7 @@
         <v>1</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
@@ -9864,10 +9842,10 @@
     </row>
     <row r="105" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C105" s="1">
         <v>1</v>
@@ -9885,16 +9863,16 @@
         <v>1</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="T105" s="1"/>
     </row>
     <row r="106" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C106" s="1">
         <v>1</v>
@@ -9912,16 +9890,16 @@
         <v>1</v>
       </c>
       <c r="J106" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="T106" s="1"/>
     </row>
     <row r="107" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C107" s="1">
         <v>1</v>
@@ -9939,16 +9917,16 @@
         <v>1</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="T107" s="1"/>
     </row>
     <row r="108" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C108" s="1">
         <v>1</v>
@@ -9966,16 +9944,16 @@
         <v>1</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T108" s="1"/>
     </row>
     <row r="109" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C109" s="1">
         <v>1</v>
@@ -9993,16 +9971,16 @@
         <v>1</v>
       </c>
       <c r="J109" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="T109" s="1"/>
     </row>
     <row r="110" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C110" s="1">
         <v>1</v>
@@ -10020,7 +9998,7 @@
         <v>1</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L110" s="1">
         <v>10</v>
@@ -10038,10 +10016,10 @@
     </row>
     <row r="111" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C111" s="1">
         <v>1</v>
@@ -10059,7 +10037,7 @@
         <v>1</v>
       </c>
       <c r="J111" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="L111" s="1">
         <v>10</v>
@@ -10077,10 +10055,10 @@
     </row>
     <row r="112" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C112" s="1">
         <v>1</v>
@@ -10098,16 +10076,16 @@
         <v>1</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T112" s="1"/>
     </row>
     <row r="113" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C113" s="1">
         <v>1</v>
@@ -10125,7 +10103,7 @@
         <v>1</v>
       </c>
       <c r="J113" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="S113" s="12"/>
       <c r="T113" s="12"/>
@@ -10138,10 +10116,10 @@
     </row>
     <row r="114" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C114" s="1">
         <v>1</v>
@@ -10159,7 +10137,7 @@
         <v>1</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
@@ -10172,10 +10150,10 @@
     </row>
     <row r="115" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C115" s="1">
         <v>1</v>
@@ -10193,7 +10171,7 @@
         <v>1</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
@@ -10206,10 +10184,10 @@
     </row>
     <row r="116" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C116" s="1">
         <v>1</v>
@@ -10227,7 +10205,7 @@
         <v>1</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L116" s="1">
         <v>10</v>
@@ -10245,10 +10223,10 @@
     </row>
     <row r="117" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C117" s="1">
         <v>1</v>
@@ -10266,7 +10244,7 @@
         <v>1</v>
       </c>
       <c r="J117" s="9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="S117" s="12"/>
       <c r="T117" s="12"/>
@@ -10279,10 +10257,10 @@
     </row>
     <row r="118" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C118" s="1">
         <v>1</v>
@@ -10300,16 +10278,16 @@
         <v>1</v>
       </c>
       <c r="J118" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="T118" s="1"/>
     </row>
     <row r="119" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C119" s="1">
         <v>1</v>
@@ -10327,7 +10305,7 @@
         <v>1</v>
       </c>
       <c r="J119" s="9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="L119" s="1">
         <v>1</v>
@@ -10351,10 +10329,10 @@
     </row>
     <row r="120" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C120" s="1">
         <v>1</v>
@@ -10372,16 +10350,16 @@
         <v>1</v>
       </c>
       <c r="J120" s="9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="T120" s="1"/>
     </row>
     <row r="121" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C121" s="1">
         <v>1</v>
@@ -10399,16 +10377,16 @@
         <v>1</v>
       </c>
       <c r="J121" s="9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="T121" s="1"/>
     </row>
     <row r="122" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C122" s="1">
         <v>1</v>
@@ -10426,16 +10404,16 @@
         <v>1</v>
       </c>
       <c r="J122" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="T122" s="1"/>
     </row>
     <row r="123" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C123" s="1">
         <v>1</v>
@@ -10453,7 +10431,7 @@
         <v>1</v>
       </c>
       <c r="J123" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="S123" s="12"/>
       <c r="T123" s="12"/>
@@ -10466,10 +10444,10 @@
     </row>
     <row r="124" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C124" s="1">
         <v>1</v>
@@ -10487,7 +10465,7 @@
         <v>1</v>
       </c>
       <c r="J124" s="9" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="S124" s="12"/>
       <c r="T124" s="12"/>
@@ -10500,10 +10478,10 @@
     </row>
     <row r="125" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C125" s="1">
         <v>1</v>
@@ -10521,7 +10499,7 @@
         <v>1</v>
       </c>
       <c r="J125" s="9" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="S125" s="12"/>
       <c r="T125" s="12"/>
@@ -10534,10 +10512,10 @@
     </row>
     <row r="126" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C126" s="1">
         <v>4</v>
@@ -10555,15 +10533,15 @@
         <v>1</v>
       </c>
       <c r="J126" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="127" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C127" s="1">
         <v>1</v>
@@ -10581,7 +10559,7 @@
         <v>1</v>
       </c>
       <c r="J127" s="9" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L127" s="1">
         <v>10</v>
@@ -10612,10 +10590,10 @@
     </row>
     <row r="128" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C128" s="1">
         <v>1</v>
@@ -10633,7 +10611,7 @@
         <v>1</v>
       </c>
       <c r="J128" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
@@ -10646,10 +10624,10 @@
     </row>
     <row r="129" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C129" s="1">
         <v>1</v>
@@ -10667,7 +10645,7 @@
         <v>1</v>
       </c>
       <c r="J129" s="9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
@@ -10680,10 +10658,10 @@
     </row>
     <row r="130" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C130" s="1">
         <v>1</v>
@@ -10701,7 +10679,7 @@
         <v>1</v>
       </c>
       <c r="J130" s="9" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
@@ -10714,10 +10692,10 @@
     </row>
     <row r="131" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C131" s="1">
         <v>1</v>
@@ -10735,16 +10713,16 @@
         <v>1</v>
       </c>
       <c r="J131" s="9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="T131" s="1"/>
     </row>
     <row r="132" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C132" s="1">
         <v>1</v>
@@ -10762,16 +10740,16 @@
         <v>1</v>
       </c>
       <c r="J132" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="T132" s="1"/>
     </row>
     <row r="133" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C133" s="1">
         <v>1</v>
@@ -10789,7 +10767,7 @@
         <v>1</v>
       </c>
       <c r="J133" s="9" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="M133" s="1">
         <v>1</v>
@@ -10810,10 +10788,10 @@
     </row>
     <row r="134" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C134" s="1">
         <v>1</v>
@@ -10831,7 +10809,7 @@
         <v>1</v>
       </c>
       <c r="J134" s="9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="L134" s="1">
         <v>10</v>
@@ -10849,10 +10827,10 @@
     </row>
     <row r="135" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C135" s="1">
         <v>1</v>
@@ -10870,7 +10848,7 @@
         <v>1</v>
       </c>
       <c r="J135" s="9" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="L135" s="1">
         <v>10</v>
@@ -10888,10 +10866,10 @@
     </row>
     <row r="136" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C136" s="1">
         <v>1</v>
@@ -10909,16 +10887,16 @@
         <v>1</v>
       </c>
       <c r="J136" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="T136" s="1"/>
     </row>
     <row r="137" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C137" s="1">
         <v>1</v>
@@ -10936,16 +10914,16 @@
         <v>1</v>
       </c>
       <c r="J137" s="9" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="T137" s="1"/>
     </row>
     <row r="138" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C138" s="1">
         <v>1</v>
@@ -10963,16 +10941,16 @@
         <v>1</v>
       </c>
       <c r="J138" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="T138" s="1"/>
     </row>
     <row r="139" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C139" s="1">
         <v>1</v>
@@ -10990,7 +10968,7 @@
         <v>1</v>
       </c>
       <c r="J139" s="9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="S139" s="12"/>
       <c r="T139" s="12"/>
@@ -11003,10 +10981,10 @@
     </row>
     <row r="140" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C140" s="1">
         <v>1</v>
@@ -11024,7 +11002,7 @@
         <v>1</v>
       </c>
       <c r="J140" s="9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="S140" s="12"/>
       <c r="T140" s="12"/>
@@ -11037,10 +11015,10 @@
     </row>
     <row r="141" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C141" s="1">
         <v>1</v>
@@ -11058,7 +11036,7 @@
         <v>1</v>
       </c>
       <c r="J141" s="9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L141" s="1">
         <v>10</v>
@@ -11089,10 +11067,10 @@
     </row>
     <row r="142" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C142" s="1">
         <v>1</v>
@@ -11110,16 +11088,16 @@
         <v>1</v>
       </c>
       <c r="J142" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="T142" s="1"/>
     </row>
     <row r="143" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C143" s="1">
         <v>1</v>
@@ -11137,16 +11115,16 @@
         <v>1</v>
       </c>
       <c r="J143" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="T143" s="1"/>
     </row>
     <row r="144" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C144" s="1">
         <v>1</v>
@@ -11164,7 +11142,7 @@
         <v>1</v>
       </c>
       <c r="J144" s="9" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="L144" s="1">
         <v>10</v>
@@ -11188,10 +11166,10 @@
     </row>
     <row r="145" spans="1:26" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C145" s="1">
         <v>1</v>
@@ -11211,7 +11189,7 @@
       <c r="H145" s="11"/>
       <c r="I145" s="11"/>
       <c r="J145" s="9" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="K145" s="6"/>
       <c r="L145" s="1">
@@ -11244,10 +11222,10 @@
     </row>
     <row r="146" spans="1:26" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C146" s="1">
         <v>1</v>
@@ -11267,7 +11245,7 @@
       <c r="H146" s="11"/>
       <c r="I146" s="11"/>
       <c r="J146" s="9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="K146" s="6"/>
       <c r="L146" s="1"/>
@@ -11288,10 +11266,10 @@
     </row>
     <row r="147" spans="1:26" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C147" s="1">
         <v>1</v>
@@ -11311,7 +11289,7 @@
       <c r="H147" s="11"/>
       <c r="I147" s="11"/>
       <c r="J147" s="9" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K147" s="6"/>
       <c r="L147" s="1"/>
@@ -11332,10 +11310,10 @@
     </row>
     <row r="148" spans="1:26" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C148" s="1">
         <v>1</v>
@@ -11355,7 +11333,7 @@
       <c r="H148" s="11"/>
       <c r="I148" s="11"/>
       <c r="J148" s="9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K148" s="6"/>
       <c r="L148" s="1"/>
@@ -11368,10 +11346,10 @@
     </row>
     <row r="149" spans="1:26" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C149" s="1">
         <v>1</v>
@@ -11391,7 +11369,7 @@
       <c r="H149" s="11"/>
       <c r="I149" s="11"/>
       <c r="J149" s="9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="K149" s="6"/>
       <c r="L149" s="1"/>
@@ -11412,10 +11390,10 @@
     </row>
     <row r="150" spans="1:26" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C150" s="1">
         <v>1</v>
@@ -11435,7 +11413,7 @@
       <c r="H150" s="11"/>
       <c r="I150" s="11"/>
       <c r="J150" s="9" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K150" s="6"/>
       <c r="L150" s="1"/>
@@ -11456,10 +11434,10 @@
     </row>
     <row r="151" spans="1:26" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C151" s="1">
         <v>1</v>
@@ -11479,7 +11457,7 @@
       <c r="H151" s="11"/>
       <c r="I151" s="11"/>
       <c r="J151" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="K151" s="6"/>
       <c r="L151" s="1"/>
@@ -11500,10 +11478,10 @@
     </row>
     <row r="152" spans="1:26" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C152" s="1">
         <v>1</v>
@@ -11523,7 +11501,7 @@
       <c r="H152" s="11"/>
       <c r="I152" s="11"/>
       <c r="J152" s="9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="K152" s="6"/>
       <c r="L152" s="1"/>
@@ -11544,10 +11522,10 @@
     </row>
     <row r="153" spans="1:26" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C153" s="1">
         <v>1</v>
@@ -11567,7 +11545,7 @@
       <c r="H153" s="11"/>
       <c r="I153" s="11"/>
       <c r="J153" s="9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K153" s="6"/>
       <c r="L153" s="1">
@@ -11600,10 +11578,10 @@
     </row>
     <row r="154" spans="1:26" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C154" s="1">
         <v>1</v>
@@ -11623,7 +11601,7 @@
       <c r="H154" s="11"/>
       <c r="I154" s="11"/>
       <c r="J154" s="9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K154" s="6"/>
       <c r="L154" s="1">
@@ -11656,10 +11634,10 @@
     </row>
     <row r="155" spans="1:26" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C155" s="1">
         <v>1</v>
@@ -11679,7 +11657,7 @@
       <c r="H155" s="11"/>
       <c r="I155" s="11"/>
       <c r="J155" s="9" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K155" s="6"/>
       <c r="L155" s="1"/>
@@ -11700,10 +11678,10 @@
     </row>
     <row r="156" spans="1:26" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C156" s="1">
         <v>1</v>
@@ -11723,7 +11701,7 @@
       <c r="H156" s="11"/>
       <c r="I156" s="11"/>
       <c r="J156" s="9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K156" s="6"/>
       <c r="L156" s="1"/>
@@ -11744,10 +11722,10 @@
     </row>
     <row r="157" spans="1:26" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C157" s="1">
         <v>1</v>
@@ -11767,7 +11745,7 @@
       <c r="H157" s="11"/>
       <c r="I157" s="11"/>
       <c r="J157" s="9" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="K157" s="6"/>
       <c r="L157" s="1"/>
@@ -11788,10 +11766,10 @@
     </row>
     <row r="158" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C158" s="1">
         <v>1</v>
@@ -11809,16 +11787,16 @@
         <v>1</v>
       </c>
       <c r="J158" s="9" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="T158" s="1"/>
     </row>
     <row r="159" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C159" s="1">
         <v>1</v>
@@ -11836,7 +11814,7 @@
         <v>1</v>
       </c>
       <c r="J159" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="T159" s="1"/>
     </row>
@@ -11897,7 +11875,7 @@
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -11911,7 +11889,7 @@
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -11925,7 +11903,7 @@
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -11940,7 +11918,7 @@
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -11954,7 +11932,7 @@
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -11970,7 +11948,7 @@
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -11986,7 +11964,7 @@
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -12002,7 +11980,7 @@
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -12018,7 +11996,7 @@
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -12034,7 +12012,7 @@
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -12049,7 +12027,7 @@
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -12064,7 +12042,7 @@
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -12079,7 +12057,7 @@
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -12094,7 +12072,7 @@
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -12109,7 +12087,7 @@
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -12124,7 +12102,7 @@
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -12139,7 +12117,7 @@
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
@@ -12154,7 +12132,7 @@
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -12169,7 +12147,7 @@
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -12184,7 +12162,7 @@
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -12199,7 +12177,7 @@
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -12214,7 +12192,7 @@
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -12229,7 +12207,7 @@
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -12244,7 +12222,7 @@
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
@@ -12308,7 +12286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CFC106-4249-4BC9-9967-425037A65B0D}">
   <dimension ref="A1:J159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O151" sqref="O151"/>
     </sheetView>
   </sheetViews>
@@ -12353,7 +12331,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="9" t="b">
@@ -12362,7 +12340,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="9" t="b">
@@ -12371,7 +12349,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="9" t="b">
@@ -12380,7 +12358,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="9" t="b">
@@ -12389,7 +12367,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="9" t="b">
@@ -12398,7 +12376,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="9" t="b">
@@ -12407,7 +12385,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="9" t="b">
@@ -12416,7 +12394,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="9" t="b">
@@ -12425,7 +12403,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="9" t="b">
@@ -12434,7 +12412,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="9" t="b">
@@ -12443,7 +12421,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="9" t="b">
@@ -12452,7 +12430,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="9" t="b">
@@ -12461,7 +12439,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="9" t="b">
@@ -12470,7 +12448,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="9" t="b">
@@ -12479,7 +12457,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="9" t="b">
@@ -12488,7 +12466,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="9" t="b">
@@ -12497,7 +12475,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="9" t="b">
@@ -12506,7 +12484,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="9" t="b">
@@ -12515,7 +12493,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="9" t="b">
@@ -12524,7 +12502,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="9" t="b">
@@ -12533,7 +12511,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="9" t="b">
@@ -12542,7 +12520,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="9" t="b">
@@ -12551,7 +12529,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="9" t="b">
@@ -12560,7 +12538,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="9" t="b">
@@ -12569,7 +12547,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="9" t="b">
@@ -12578,7 +12556,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="9" t="b">
@@ -12587,7 +12565,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="9" t="b">
@@ -12596,7 +12574,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="9" t="b">
@@ -12605,7 +12583,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="9" t="b">
@@ -12614,7 +12592,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="9" t="b">
@@ -12623,7 +12601,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="9" t="b">
@@ -12632,7 +12610,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="9" t="b">
@@ -12641,7 +12619,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="9" t="b">
@@ -12650,7 +12628,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="9" t="b">
@@ -12659,7 +12637,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="9" t="b">
@@ -12668,7 +12646,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="9" t="b">
@@ -12677,7 +12655,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="9" t="b">
@@ -12686,7 +12664,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="9" t="b">
@@ -12695,7 +12673,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="9" t="b">
@@ -12704,7 +12682,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="9" t="b">
@@ -12713,7 +12691,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="9" t="b">
@@ -12722,7 +12700,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="9" t="b">
@@ -12731,7 +12709,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="9" t="b">
@@ -12740,7 +12718,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="9" t="b">
@@ -12749,7 +12727,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="9" t="b">
@@ -12758,7 +12736,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="9" t="b">
@@ -12767,7 +12745,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="9" t="b">
@@ -12776,7 +12754,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="9" t="b">
@@ -12785,7 +12763,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H50" s="6"/>
       <c r="I50" s="9" t="b">
@@ -12794,7 +12772,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="9" t="b">
@@ -12803,7 +12781,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="9" t="b">
@@ -12812,7 +12790,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="9" t="b">
@@ -12821,7 +12799,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I54" s="9" t="b">
         <v>1</v>
@@ -12829,7 +12807,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="I55" s="9" t="b">
         <v>1</v>
@@ -12837,7 +12815,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="I56" s="9" t="b">
         <v>1</v>
@@ -12845,7 +12823,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I57" s="9" t="b">
         <v>1</v>
@@ -12853,7 +12831,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I58" s="9" t="b">
         <v>1</v>
@@ -12861,7 +12839,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I59" s="9" t="b">
         <v>1</v>
@@ -12869,7 +12847,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I60" s="9" t="b">
         <v>1</v>
@@ -12877,7 +12855,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I61" s="9" t="b">
         <v>1</v>
@@ -12885,7 +12863,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I62" s="9" t="b">
         <v>1</v>
@@ -12893,7 +12871,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I63" s="9" t="b">
         <v>1</v>
@@ -12901,7 +12879,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I64" s="9" t="b">
         <v>1</v>
@@ -12909,7 +12887,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="I65" s="9" t="b">
         <v>1</v>
@@ -12917,7 +12895,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I66" s="9" t="b">
         <v>1</v>
@@ -12925,7 +12903,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I67" s="9" t="b">
         <v>1</v>
@@ -12933,7 +12911,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="I68" s="9" t="b">
         <v>1</v>
@@ -12941,7 +12919,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I69" s="9" t="b">
         <v>1</v>
@@ -12949,7 +12927,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I70" s="9" t="b">
         <v>1</v>
@@ -12957,7 +12935,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I71" s="9" t="b">
         <v>1</v>
@@ -12965,7 +12943,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I72" s="9" t="b">
         <v>1</v>
@@ -12973,7 +12951,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I73" s="9" t="b">
         <v>1</v>
@@ -12981,7 +12959,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I74" s="9" t="b">
         <v>1</v>
@@ -12989,7 +12967,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I75" s="9" t="b">
         <v>1</v>
@@ -12997,7 +12975,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I76" s="9" t="b">
         <v>1</v>
@@ -13005,7 +12983,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I77" s="9" t="b">
         <v>1</v>
@@ -13013,7 +12991,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I78" s="9" t="b">
         <v>1</v>
@@ -13021,7 +12999,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I79" s="9" t="b">
         <v>1</v>
@@ -13029,7 +13007,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I80" s="9" t="b">
         <v>1</v>
@@ -13037,7 +13015,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I81" s="9" t="b">
         <v>1</v>
@@ -13045,7 +13023,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I82" s="9" t="b">
         <v>1</v>
@@ -13053,7 +13031,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I83" s="9" t="b">
         <v>1</v>
@@ -13061,7 +13039,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I84" s="9" t="b">
         <v>1</v>
@@ -13069,7 +13047,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I85" s="9" t="b">
         <v>1</v>
@@ -13077,7 +13055,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I86" s="9" t="b">
         <v>1</v>
@@ -13085,7 +13063,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I87" s="9" t="b">
         <v>1</v>
@@ -13093,7 +13071,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="I88" s="9" t="b">
         <v>1</v>
@@ -13101,7 +13079,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I89" s="9" t="b">
         <v>1</v>
@@ -13109,7 +13087,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I90" s="9" t="b">
         <v>1</v>
@@ -13117,7 +13095,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I91" s="9" t="b">
         <v>1</v>
@@ -13125,7 +13103,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I92" s="9" t="b">
         <v>1</v>
@@ -13133,7 +13111,7 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I93" s="9" t="b">
         <v>1</v>
@@ -13141,7 +13119,7 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I94" s="9" t="b">
         <v>1</v>
@@ -13149,7 +13127,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I95" s="9" t="b">
         <v>1</v>
@@ -13157,7 +13135,7 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="I96" s="9" t="b">
         <v>1</v>
@@ -13165,7 +13143,7 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I97" s="9" t="b">
         <v>1</v>
@@ -13173,7 +13151,7 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I98" s="9" t="b">
         <v>1</v>
@@ -13181,7 +13159,7 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I99" s="9" t="b">
         <v>1</v>
@@ -13189,7 +13167,7 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I100" s="9" t="b">
         <v>1</v>
@@ -13197,7 +13175,7 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I101" s="9" t="b">
         <v>1</v>
@@ -13205,7 +13183,7 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I102" s="9" t="b">
         <v>1</v>
@@ -13213,7 +13191,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="I103" s="9" t="b">
         <v>1</v>
@@ -13221,7 +13199,7 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I104" s="9" t="b">
         <v>1</v>
@@ -13229,7 +13207,7 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I105" s="9" t="b">
         <v>1</v>
@@ -13237,7 +13215,7 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I106" s="9" t="b">
         <v>1</v>
@@ -13245,7 +13223,7 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I107" s="9" t="b">
         <v>1</v>
@@ -13253,7 +13231,7 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="I108" s="9" t="b">
         <v>1</v>
@@ -13261,7 +13239,7 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I109" s="9" t="b">
         <v>1</v>
@@ -13269,7 +13247,7 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I110" s="9" t="b">
         <v>1</v>
@@ -13277,7 +13255,7 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="I111" s="9" t="b">
         <v>1</v>
@@ -13285,7 +13263,7 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="I112" s="9" t="b">
         <v>1</v>
@@ -13293,7 +13271,7 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I113" s="9" t="b">
         <v>1</v>
@@ -13301,7 +13279,7 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I114" s="9" t="b">
         <v>1</v>
@@ -13309,7 +13287,7 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I115" s="9" t="b">
         <v>1</v>
@@ -13317,7 +13295,7 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I116" s="9" t="b">
         <v>1</v>
@@ -13325,7 +13303,7 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I117" s="9" t="b">
         <v>1</v>
@@ -13333,7 +13311,7 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I118" s="9" t="b">
         <v>1</v>
@@ -13341,7 +13319,7 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I119" s="9" t="b">
         <v>1</v>
@@ -13349,7 +13327,7 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I120" s="9" t="b">
         <v>1</v>
@@ -13357,7 +13335,7 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I121" s="9" t="b">
         <v>1</v>
@@ -13365,7 +13343,7 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I122" s="9" t="b">
         <v>1</v>
@@ -13373,7 +13351,7 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I123" s="9" t="b">
         <v>1</v>
@@ -13381,7 +13359,7 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I124" s="9" t="b">
         <v>1</v>
@@ -13389,7 +13367,7 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I125" s="9" t="b">
         <v>1</v>
@@ -13397,7 +13375,7 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I126" s="9" t="b">
         <v>1</v>
@@ -13405,7 +13383,7 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I127" s="9" t="b">
         <v>1</v>
@@ -13413,7 +13391,7 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I128" s="9" t="b">
         <v>1</v>
@@ -13421,7 +13399,7 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="I129" s="9" t="b">
         <v>1</v>
@@ -13429,7 +13407,7 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I130" s="9" t="b">
         <v>1</v>
@@ -13437,7 +13415,7 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I131" s="9" t="b">
         <v>1</v>
@@ -13445,7 +13423,7 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I132" s="9" t="b">
         <v>1</v>
@@ -13453,7 +13431,7 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I133" s="9" t="b">
         <v>1</v>
@@ -13461,7 +13439,7 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I134" s="9" t="b">
         <v>1</v>
@@ -13469,7 +13447,7 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I135" s="9" t="b">
         <v>1</v>
@@ -13477,7 +13455,7 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I136" s="9" t="b">
         <v>1</v>
@@ -13485,7 +13463,7 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I137" s="9" t="b">
         <v>1</v>
@@ -13493,7 +13471,7 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I138" s="9" t="b">
         <v>1</v>
@@ -13501,7 +13479,7 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I139" s="9" t="b">
         <v>1</v>
@@ -13509,7 +13487,7 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I140" s="9" t="b">
         <v>1</v>
@@ -13517,7 +13495,7 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="I141" s="9" t="b">
         <v>1</v>
@@ -13525,7 +13503,7 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I142" s="9" t="b">
         <v>1</v>
@@ -13533,7 +13511,7 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I143" s="9" t="b">
         <v>1</v>
@@ -13541,7 +13519,7 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I144" s="9" t="b">
         <v>1</v>
@@ -13549,7 +13527,7 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I145" s="9" t="b">
         <v>1</v>
@@ -13557,7 +13535,7 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I146" s="9" t="b">
         <v>1</v>
@@ -13565,7 +13543,7 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I147" s="9" t="b">
         <v>1</v>
@@ -13573,7 +13551,7 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I148" s="9" t="b">
         <v>1</v>
@@ -13581,7 +13559,7 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I149" s="9" t="b">
         <v>1</v>
@@ -13589,7 +13567,7 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="I150" s="9" t="b">
         <v>1</v>
@@ -13597,7 +13575,7 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I151" s="9" t="b">
         <v>1</v>
@@ -13605,7 +13583,7 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I152" s="9" t="b">
         <v>1</v>
@@ -13613,7 +13591,7 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="I153" s="9" t="b">
         <v>1</v>
@@ -13621,7 +13599,7 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I154" s="9" t="b">
         <v>1</v>
@@ -13629,7 +13607,7 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I155" s="9" t="b">
         <v>1</v>
@@ -13637,7 +13615,7 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I156" s="9" t="b">
         <v>1</v>
@@ -13645,7 +13623,7 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I157" s="9" t="b">
         <v>1</v>
@@ -13653,7 +13631,7 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I158" s="9" t="b">
         <v>1</v>
@@ -13661,7 +13639,7 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I159" s="9" t="b">
         <v>1</v>
@@ -13731,7 +13709,7 @@
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B2" s="1">
         <v>4</v>
@@ -13754,7 +13732,7 @@
     </row>
     <row r="3" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B3" s="1">
         <v>4</v>
@@ -13777,7 +13755,7 @@
     </row>
     <row r="4" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
@@ -13800,7 +13778,7 @@
     </row>
     <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -13823,7 +13801,7 @@
     </row>
     <row r="6" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
@@ -13846,7 +13824,7 @@
     </row>
     <row r="7" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
@@ -13869,7 +13847,7 @@
     </row>
     <row r="8" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B8" s="1">
         <v>4</v>
@@ -13938,7 +13916,7 @@
     </row>
     <row r="2" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>86</v>
@@ -13946,7 +13924,7 @@
     </row>
     <row r="3" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>86</v>
@@ -13954,7 +13932,7 @@
     </row>
     <row r="4" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>86</v>
@@ -13962,7 +13940,7 @@
     </row>
     <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>86</v>
@@ -13970,7 +13948,7 @@
     </row>
     <row r="6" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>86</v>
@@ -13978,7 +13956,7 @@
     </row>
     <row r="7" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>86</v>
@@ -13986,7 +13964,7 @@
     </row>
     <row r="8" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>86</v>
@@ -13994,7 +13972,7 @@
     </row>
     <row r="9" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>86</v>
@@ -14054,118 +14032,118 @@
     <row r="1" spans="1:8" s="3" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
       <c r="B1" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>454</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B15" s="1">
         <v>10000</v>
@@ -14188,7 +14166,7 @@
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H16" s="1">
         <v>10000</v>
@@ -14196,7 +14174,7 @@
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H17" s="1">
         <v>10000</v>
@@ -14204,7 +14182,7 @@
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H18" s="1">
         <v>10000</v>
@@ -14212,7 +14190,7 @@
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H19" s="1">
         <v>10000</v>
@@ -14220,7 +14198,7 @@
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H20" s="1">
         <v>10000</v>
@@ -14228,7 +14206,7 @@
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H21" s="1">
         <v>10000</v>
@@ -14236,7 +14214,7 @@
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H22" s="1">
         <v>10000</v>
@@ -14244,7 +14222,7 @@
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H23" s="1">
         <v>10000</v>
@@ -14252,7 +14230,7 @@
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H24" s="1">
         <v>10000</v>
@@ -14260,7 +14238,7 @@
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H25" s="1">
         <v>10000</v>
@@ -14293,28 +14271,28 @@
     <row r="1" spans="1:18" s="3" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>464</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -14328,82 +14306,82 @@
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D17" s="1">
         <v>10</v>
@@ -14426,7 +14404,7 @@
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D18" s="1">
         <v>10</v>
@@ -14449,7 +14427,7 @@
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D19" s="1">
         <v>10</v>
@@ -14472,7 +14450,7 @@
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D20" s="1">
         <v>10</v>
@@ -14495,7 +14473,7 @@
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D21" s="1">
         <v>10</v>
@@ -14518,7 +14496,7 @@
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D22" s="1">
         <v>10</v>
@@ -14541,7 +14519,7 @@
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D23" s="1">
         <v>10</v>
@@ -14564,7 +14542,7 @@
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D24" s="1">
         <v>10</v>
@@ -14587,7 +14565,7 @@
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D25" s="1">
         <v>10</v>
